--- a/biology/Zoologie/Amblyodipsas_microphthalma/Amblyodipsas_microphthalma.xlsx
+++ b/biology/Zoologie/Amblyodipsas_microphthalma/Amblyodipsas_microphthalma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amblyodipsas microphthalma est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amblyodipsas microphthalma est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le Sud du Mozambique et dans l'est de la Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le Sud du Mozambique et dans l'est de la Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Amblyodipsas microphthalma microphthalma (Bianconi, 1852)
 Amblyodipsas microphthalma nigra Jacobsen, 1986</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bianconi, 1852 : Specimina Zoologica Mosambicana - Fasc. IV, p. 1-8 (texte intégral).
 Jacobsen, 1986 : A new subspecies of Amblyodipsas microphthalma (Bianconi, 1850) (Serpentes: Colubridae) from the Transvaal. Annals of the Transvaal Museum, vol. 34, p. 123–127 (texte intégral).</t>
